--- a/curry.xlsx
+++ b/curry.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:S37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,15 +521,10 @@
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>permanently_closed</t>
+          <t>is_popular</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>is_popular</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
@@ -573,7 +568,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>[{'height': 423, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/100728447542906151611"&gt;A Google User&lt;/a&gt;'], 'photo_reference': 'AWYs27xN8ZQ1CiHlQR5TScdjLbEBrdAPI6IbHk8GIVRlqqyoFmKLOoX59M7nnMBemOyqLEmqhvCPGm8oceI1Y4RdJRQj09__8Y2oYoyYfVreLM-aBpughntSgWGSAcoy2XEboVVyo9QGATkoJhofzC-SAyqJk_A3DEL8CrIYOWRJbh_bejQQ', 'width': 567}]</t>
+          <t>[{'height': 423, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/100728447542906151611"&gt;A Google User&lt;/a&gt;'], 'photo_reference': 'AWYs27xR9_HiE8VV9kfdIeUVL5eyBLD9frOnayv20Re-Jbi_JELWKavTIwByB_rVawb4fy1yeLmxeSNgq8Bf4V1mWRpWlgKfEX9BrgwikFCbFlANV-jOgccaf_GtVTzTTKBjMmjepL_InkPTgyIqoUaN-Qj_ZF8fzRDXPxghhcvvYu2W2PVF', 'width': 567}]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -613,11 +608,10 @@
         </is>
       </c>
       <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="b">
+      <c r="R2" t="b">
         <v>0</v>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/?q=place_id:ChIJVeTPtVN3bjQRZHDIRPwpgDs</t>
         </is>
@@ -661,7 +655,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>[{'height': 3024, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/107836903714725740490"&gt;A Google User&lt;/a&gt;'], 'photo_reference': 'AWYs27xTNjEOh1aShkHKE83Zr21tfTxAjqlZ7DLLNP-m2XMaNOJYFnJq6fUEl55I7p-5gUXdzYR8IpoR6tgBdaQjnrMQIYzTXlUKDhwuvPiy9GAFOpfzRixrjxkJmqEsYh4ng1h-8pU7AxHc2Wt_bA4T1-wJm_wc2AYFmcSVeHDy8hB0kDGe', 'width': 4032}]</t>
+          <t>[{'height': 3024, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/107836903714725740490"&gt;A Google User&lt;/a&gt;'], 'photo_reference': 'AWYs27xz0vf4998EDXfQReOMYcSPFxTBxbd8o2XAuvyPnq77Z9rq1TcIkMBB3W7crd6UnFekI_Pjjxt_CDCncQag28sLb4i5aiOAccB2M_1fzzaaszxCJJCpGDxJUX3IritTzZQNfvnphPfPB5lGmSylkTANSXUTcarD3ScAp860et2prjOw', 'width': 4032}]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -703,11 +697,10 @@
       <c r="Q3" t="n">
         <v>2</v>
       </c>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="b">
+      <c r="R3" t="b">
         <v>1</v>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/?q=place_id:ChIJ_3rMzzh3bjQR80dCU3gCBbk</t>
         </is>
@@ -751,7 +744,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>[{'height': 5712, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/103376256517614991785"&gt;嚴為麟&lt;/a&gt;'], 'photo_reference': 'AWYs27z9YY0Zmvrp2G4e9g7ZPxF3m6qL0tPiqD8DyQSP3ZDTqGjukWFxdfUKQK6ZkWkCYqPva86-s2a5IG9vQnaV-aOYdiRXwv3aLYda3L6QwMggR5XTTjDZ823496pH-rDyDcpBNmuygg5vgA4Y0GDplPoGELIwitEVdQ2nIv-MO7bUi31u', 'width': 4284}]</t>
+          <t>[{'height': 5712, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/103376256517614991785"&gt;嚴為麟&lt;/a&gt;'], 'photo_reference': 'AWYs27wBltWeLy1-Ztr-IyrvrC0N1TEkriKi6nVBCxKvtYtJbBkFMxM0QL4q_KHe-fGss-9rFc8b0stLpFHhXRVbfTmHIRsP_dCq2xI_7aZcGOmHSQWbS1IiauQ24OKnAj_xcxMaTJX4CYXaUsrnrNJKxbcqt87hnEAuT25SnxLZ0xefgSo7', 'width': 4284}]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -793,11 +786,10 @@
       <c r="Q4" t="n">
         <v>2</v>
       </c>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="b">
+      <c r="R4" t="b">
         <v>1</v>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/?q=place_id:ChIJzZyc34l2bjQRnV3VpAGeEiY</t>
         </is>
@@ -841,7 +833,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>[{'height': 1477, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/113720102823398861408"&gt;A Google User&lt;/a&gt;'], 'photo_reference': 'AWYs27yXgW2256G9EBd3ClKI2YucOwS-mmA6C4iGKKP22ZIEfDESV6EfMM1U7CtUs7g91OndBPS2BcHbko3ztNV6UBlFaLfty9W8qWURZorNV2aLY5Pjca9vXoeKQYC5NrpMGhJ3N5KB2820ZwCR2TPahnJEEBDxTmf1xd4XBkZrOMrtgUb6', 'width': 1108}]</t>
+          <t>[{'height': 1477, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/113720102823398861408"&gt;A Google User&lt;/a&gt;'], 'photo_reference': 'AWYs27y5a4qIikLbJZyZlGlVOmm2-OFHV_LvvpddlWIK-PGFuhfCWs7He7I6MkE5tGjX8bqIH2qRPZmj5rNovQBJXJstZp9NdzKFHf5fu8aiPT_Q7DdwCjhAcOze4MLh6JjK_AUFYPWCHyKDsy7Oi9uWkx-vTMbrn0fdqBgKUINJX-ZWaUyA', 'width': 1108}]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -881,11 +873,10 @@
         </is>
       </c>
       <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="b">
+      <c r="R5" t="b">
         <v>1</v>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/?q=place_id:ChIJ_4BPiEx3bjQRY3T328YLi6s</t>
         </is>
@@ -929,7 +920,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>[{'height': 3060, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/112377536698059422821"&gt;林伯勛&lt;/a&gt;'], 'photo_reference': 'AWYs27yGvm1tT9pSlVawtTZ-d-OpQoJm1YyTIl8t06doAP8aJNrXWAB8SDaPFXPrJSLeS1BdF7ojH8fh-A25HT74BKxiIj6ruiT3og0d2MoZFZ9UV617gwRJpzJ029MYZnj0EWGskVEpEAlPDgc_ZLiamH3SFU9LKoZY7Y8xKQJyCvisJjrC', 'width': 4080}]</t>
+          <t>[{'height': 3060, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/112377536698059422821"&gt;林伯勛&lt;/a&gt;'], 'photo_reference': 'AWYs27y1YhCeI5VNiQyye8wpGB7Sku-_AtbVHtix9r8AWiSCX5SkAokM9kpV3CYdcJJ5gohhZfoqKO4HuYkOrCKgjMMbpHuQNcQNnHUbxAHbL7ZWrqvHqwJ2cLakzhrAUoH_FhDRLcden3VzFlASWXre8fHb7_h6YeDuzmwvQEEI6k-1Y3Dc', 'width': 4080}]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -971,11 +962,10 @@
       <c r="Q6" t="n">
         <v>2</v>
       </c>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="b">
+      <c r="R6" t="b">
         <v>0</v>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/?q=place_id:ChIJ6YgJbHd1bjQRXegbHyIuL4o</t>
         </is>
@@ -1019,7 +1009,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>[{'height': 3000, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/114642573509506895820"&gt;高小葳&lt;/a&gt;'], 'photo_reference': 'AWYs27xuOyEFXrcpf-EoQTAzvDD_fgc5y_WCLd6tPows_7RTceYgfQ2IOj9eBd-_N4dOaw7fC3EU7bhcabBPDVwm3dKJpy__qOFPS1juyddDVr7k-4Ejpamo5eI15DGFvI1n4co2TKgIaUVfCL-qVlcgHLeY4MCQyqfIfYxndLGuKsBXNQg0', 'width': 4000}]</t>
+          <t>[{'height': 3000, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/114642573509506895820"&gt;高小葳&lt;/a&gt;'], 'photo_reference': 'AWYs27xLvvLp2OHGj0vBwWqhOyVNzRNMaZ7HNp_LClPyR76QP4Tt9yj4ZyJSRUAS5m9ADkuThFyCWS6bmpxd1grnmxJ89lVaaSMIrmIakMoHvGQAGi_OETxQIuyxBRPlmPutgwUAQXtr37NpH2KZLQqEFoKp6eu184eR7-rklm8DuLZNaT9J', 'width': 4000}]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1061,11 +1051,10 @@
       <c r="Q7" t="n">
         <v>2</v>
       </c>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="b">
+      <c r="R7" t="b">
         <v>1</v>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/?q=place_id:ChIJ8czJ6_h3bjQRMELF41rr2Xc</t>
         </is>
@@ -1109,7 +1098,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>[{'height': 4284, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/111535458322488230051"&gt;劉嘉仁&lt;/a&gt;'], 'photo_reference': 'AWYs27wy_hfvjRsHzsawRK-EY_QJd7iNGYOIRdBIMu2ERsN1dQErr5WDHnb53VJkNSDiYkgnBkk7EPleZwWiTMOnozgV-JM-vJpT6mm43lid_Oh-tgXYxml1nglr3JOkliT4MGruLDQO7MUGIUyvbBEBdtMbzI0yA6KKP_JTdW_PYFTI-WA8', 'width': 5712}]</t>
+          <t>[{'height': 4284, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/111535458322488230051"&gt;劉嘉仁&lt;/a&gt;'], 'photo_reference': 'AWYs27wH4Yol3Vf2lbZIvBUmYw8p1rJZDE4u6AMFJwk9lt3J-cj59wOUs9qb4S00P36-YO7TMV_zbiBQ_t4no7jYnzi4E-SXScZqrt4NJJAVfYPEhi0P_RxZXXBKcYgjOyI14ksanB2RuDxuoNcCHZ_itj5KYfPizD_iJPab5T74nlrdI_Xk', 'width': 5712}]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1149,11 +1138,10 @@
         </is>
       </c>
       <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="b">
+      <c r="R8" t="b">
         <v>1</v>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/?q=place_id:ChIJ-SgK_jZ3bjQR62-4O_6vmHM</t>
         </is>
@@ -1197,7 +1185,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>[{'height': 4032, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/109905651166916000657"&gt;A Google User&lt;/a&gt;'], 'photo_reference': 'AWYs27y7J-TcdmSPdpmebcYuP22MobLYHH1kqA8FssYqN5BNnMFCu4QwfySc-j_AkA6hvNvq4AdB95HW-g_7jnwlcfjWuEawE35VXDlPyfjo7WNeBvVIHLkTEjyP2mSV4o0bGfAaOqUyrusRoLffoT6SJnmfAauZmHSpTufGInkPX-Nu-g3X', 'width': 3024}]</t>
+          <t>[{'height': 4032, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/109905651166916000657"&gt;A Google User&lt;/a&gt;'], 'photo_reference': 'AWYs27w7yNLLLbhE1BysupSvo17_rAFsdg_M-BUAJkY-o4H_UJYbCc2mdpL1R5dxF68W46UTM6KX5fpce_INFSECMGC-V_JRcsoj6tkEajXcNCBT80kS6xvqYsEn7e-qO6ayye2caY8qUk_N5GIjA8wqEPdIJZrczGfymK_pL7QmY_nF020a', 'width': 3024}]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1239,11 +1227,10 @@
       <c r="Q9" t="n">
         <v>1</v>
       </c>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="b">
+      <c r="R9" t="b">
         <v>0</v>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/?q=place_id:ChIJcW_bPLB3bjQRRkbZsiQfS2k</t>
         </is>
@@ -1287,7 +1274,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>[{'height': 4032, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/116382708783999486533"&gt;陳鏡方&lt;/a&gt;'], 'photo_reference': 'AWYs27xpqRbDKj62YKe1n6gSYNjsH2cOSq5vYV7Oy99Iu-ls2lRbYces3UGdvz6H-WaMiNsvBiI3jARE_Bn-cEqDK2_sqXMR6pfK6o31i2tm32nxXRn_jFkaqT2jO9qKbl02DJe9dxkQdeTq8oZK4zkiDqXhCu_QZ5ADGXNVPSR52Yaz0t-w', 'width': 3024}]</t>
+          <t>[{'height': 4032, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/116382708783999486533"&gt;陳鏡方&lt;/a&gt;'], 'photo_reference': 'AWYs27xQBcYM5yuPU45KTY0RSlWYZmxA0a1s-_6Cus-eXWSrJe5T0llwkJtwZXS6ODDQpxF-6DZ9A32ErBF4nVhOV2-jmUNzfWcro5XlNdarWJY3EgnlQ_8704ZN_sXHI77VLFR_HnEYwgGkKCkN1YQbj7FYcRqHNGN4B4Ob0n6mLYwqMzkD', 'width': 3024}]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1329,11 +1316,10 @@
       <c r="Q10" t="n">
         <v>1</v>
       </c>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="b">
+      <c r="R10" t="b">
         <v>1</v>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/?q=place_id:ChIJ8zR7U9t3bjQRun8SyUoUzrs</t>
         </is>
@@ -1377,7 +1363,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>[{'height': 3072, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/103694068266740108676"&gt;張西元&lt;/a&gt;'], 'photo_reference': 'AWYs27xIteB_cPb5qxHOKPrHf2_Lut4nDdXLTd5PsloQ3Kew11MRRlkhHU0-qsfc5t29h_76emuW2Tu5XQdmOJHMTK1yh1ZZ9NlDuSqdp-3KmsQ-Zh4NWi2EivBG_7eThf8tF26X9yASMxYS2-XVt1OTl7RAptBfwhtyXwAL3wvyQwe9obmA', 'width': 4096}]</t>
+          <t>[{'height': 3072, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/103694068266740108676"&gt;張西元&lt;/a&gt;'], 'photo_reference': 'AWYs27zriluvjLNTohdiJ3lA-q3Q3sAo8Oy2TzlSmY6PJmymvWlhV3Z2rne2GCOqE_inYCoXsGmtCHulIO-k6i8UAWE0DBgE-TX1tQFv-2Mj5E9kwaCtUI_UM2mPbvz130QpTM72D0FDX7UJRIhE8GInoScqGmIiNJIMvhfEtkFeJ74xyzyM', 'width': 4096}]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1417,11 +1403,10 @@
         </is>
       </c>
       <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="b">
+      <c r="R11" t="b">
         <v>1</v>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/?q=place_id:ChIJyxmPJs53bjQR-0nHd2svzNc</t>
         </is>
@@ -1435,7 +1420,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>{'location': {'lat': 22.9888917, 'lng': 120.2047912}, 'viewport': {'northeast': {'lat': 22.99031432989272, 'lng': 120.2061510298927}, 'southwest': {'lat': 22.98761467010727, 'lng': 120.2034513701073}}}</t>
+          <t>{'location': {'lat': 22.9919962, 'lng': 120.2005972}, 'viewport': {'northeast': {'lat': 22.99334062989272, 'lng': 120.2019973798927}, 'southwest': {'lat': 22.99064097010728, 'lng': 120.1992977201073}}}</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1455,7 +1440,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>侘熟成咖哩 | 日式熟成咖哩 | 中西區咖哩美食</t>
+          <t>Onion Curry Kobo</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1465,25 +1450,25 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>[{'height': 2880, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/109170854268542797423"&gt;李雅倫&lt;/a&gt;'], 'photo_reference': 'AWYs27wTi0n-Lkeih5t66NntG3tKY8aQb7D6gz9FjpN3wH_HahXw35p9oXm3i_qS2a17Sxh2xN38mgYbNn7bDS5imn89sfS2jtD6ZLlO7zQWeIyYRk3VvvtW15heoYKxtfkSUA1hzO3ZjI6Lf2kBrXr-REMfVuYD0oNGyXUkeU-YBYdp1k2o', 'width': 3840}]</t>
+          <t>[{'height': 2296, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/113706917970012852063"&gt;陈鸿铭&lt;/a&gt;'], 'photo_reference': 'AWYs27ws84o5lI954U_NOJfVApFtD6zIjnFk4sipI-MUxxEIlKVzlUS8mxarBW1_jJ_q5u_I5YZJYoKdYnmZKJ1h_HEhQOqlEJErBCyM4iTuKe377i_KBmwnpiXvYt62_T1e89Pqura7zHrzjzd2zZhY54LKseCQOGEkGu-CnzGqerUIOAS4', 'width': 4080}]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>ChIJaQjDEol3bjQRlzxpTNjry2w</t>
+          <t>ChIJ35JzOGN2bjQRSnGrBCLU6yE</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>{'compound_code': 'X6Q3+HW 郡王里 Tainan City, West Central District', 'global_code': '7QJ2X6Q3+HW'}</t>
+          <t>{'compound_code': 'X6R2+R6 福安里 Tainan City, West Central District', 'global_code': '7QJ2X6R2+R6'}</t>
         </is>
       </c>
       <c r="K12" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>ChIJaQjDEol3bjQRlzxpTNjry2w</t>
+          <t>ChIJ35JzOGN2bjQRSnGrBCLU6yE</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1497,21 +1482,22 @@
         </is>
       </c>
       <c r="O12" t="n">
-        <v>223</v>
+        <v>1438</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>No. 189號, Section 1, Fuqian Rd</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="b">
-        <v>0</v>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/?q=place_id:ChIJaQjDEol3bjQRlzxpTNjry2w</t>
+          <t>No. 67號, Section 2, Yongfu Rd</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" t="b">
+        <v>1</v>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/?q=place_id:ChIJ35JzOGN2bjQRSnGrBCLU6yE</t>
         </is>
       </c>
     </row>
@@ -1523,7 +1509,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>{'location': {'lat': 22.9919962, 'lng': 120.2005972}, 'viewport': {'northeast': {'lat': 22.99334062989272, 'lng': 120.2019973798927}, 'southwest': {'lat': 22.99064097010728, 'lng': 120.1992977201073}}}</t>
+          <t>{'location': {'lat': 22.9956626, 'lng': 120.2019903}, 'viewport': {'northeast': {'lat': 22.99703207989272, 'lng': 120.2032859798927}, 'southwest': {'lat': 22.99433242010728, 'lng': 120.2005863201073}}}</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1543,7 +1529,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Onion Curry Kobo</t>
+          <t>老騎士咖哩飯專門店</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1553,25 +1539,25 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>[{'height': 2296, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/113706917970012852063"&gt;陈鸿铭&lt;/a&gt;'], 'photo_reference': 'AWYs27yuMiXyfRTm1bdS16WrbId5AOmHQhoGv0xkwxZ91YaRq1j391-z5F7QfUEQaPeVJC5Oefwv1_fKfT-MgAK7G7iLsDiwWDjRd_eDnwf0IGCWupiPXV_jIZpIIX7A3oZeTUyn0qCISRVwBgVThytPaWyCqg3Kbb3dpJq9wLUQv3E7huDx', 'width': 4080}]</t>
+          <t>[{'height': 5712, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/108373044813991121766"&gt;JEFF cheng&lt;/a&gt;'], 'photo_reference': 'AWYs27x1zzEx3FWR0-uDPM13yIvW7tLsAr5S9yUATW9Rx5jwYFJvRM1l50Z_qhNh_CDQ9J3xGw57cJ5G21cH9jJ5y5PdXJABKIplLy6jt3nxll0YHMAjRRHrwDHJmrlJHzDx53kb_E07wr3HAFciElIicLbvcTV4_pXEXShfhSxA2HfTx5kH', 'width': 4284}]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>ChIJ35JzOGN2bjQRSnGrBCLU6yE</t>
+          <t>ChIJSz-BzWN2bjQRu7-JJgUWckI</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>{'compound_code': 'X6R2+R6 福安里 Tainan City, West Central District', 'global_code': '7QJ2X6R2+R6'}</t>
+          <t>{'compound_code': 'X6W2+7R 永福里 Tainan City, West Central District', 'global_code': '7QJ2X6W2+7R'}</t>
         </is>
       </c>
       <c r="K13" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>ChIJ35JzOGN2bjQRSnGrBCLU6yE</t>
+          <t>ChIJSz-BzWN2bjQRu7-JJgUWckI</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1585,23 +1571,22 @@
         </is>
       </c>
       <c r="O13" t="n">
-        <v>1438</v>
+        <v>1742</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>No. 67號, Section 2, Yongfu Rd</t>
+          <t>No. 180號, Section 2, Yongfu Rd</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>2</v>
-      </c>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="b">
         <v>1</v>
       </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/?q=place_id:ChIJ35JzOGN2bjQRSnGrBCLU6yE</t>
+      <c r="R13" t="b">
+        <v>1</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/?q=place_id:ChIJSz-BzWN2bjQRu7-JJgUWckI</t>
         </is>
       </c>
     </row>
@@ -1613,7 +1598,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>{'location': {'lat': 22.9956626, 'lng': 120.2019903}, 'viewport': {'northeast': {'lat': 22.99703207989272, 'lng': 120.2032859798927}, 'southwest': {'lat': 22.99433242010728, 'lng': 120.2005863201073}}}</t>
+          <t>{'location': {'lat': 22.9955009, 'lng': 120.2098201}, 'viewport': {'northeast': {'lat': 22.99688137989272, 'lng': 120.2111460798927}, 'southwest': {'lat': 22.99418172010728, 'lng': 120.2084464201073}}}</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1633,7 +1618,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>老騎士咖哩飯專門店</t>
+          <t>CoCo壹番屋 台南中山店</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1643,25 +1628,25 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>[{'height': 5712, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/108373044813991121766"&gt;JEFF cheng&lt;/a&gt;'], 'photo_reference': 'AWYs27zoQjhbuzeeWjcnv5FXEEI1Z0Lntko7HNLjwvH8FO0Kq_uLbTUxQIWlc3TUFKweyjgdWsR9YgZ_wYTqCyORkmC3xNO4zHglpOggN89XtiKUuYKRUxGc4LhWC7t8ZACP1JLKlQhB7XLtQJVX0yjjGJRfjXz78kpDN1EWfwTOPHLwqkhe', 'width': 4284}]</t>
+          <t>[{'height': 3024, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/102540738113327439433"&gt;A Google User&lt;/a&gt;'], 'photo_reference': 'AWYs27zV_34prBFh7Rx657mPn7FUPy6tw-mVlvraCD_oPUXNjnOaQ9_H6un0eMbh7CH2GIU_E17idTMAAJElSR1yIGCVnJmc09w8jrHU0WUrTmTAE6lOHvqBPXfUs8L-6LXxajLLICkxQ-wcXpqJoENLyrPwdFUE5tLpi90k_HAG2LMx4mfq', 'width': 4032}]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>ChIJSz-BzWN2bjQRu7-JJgUWckI</t>
+          <t>ChIJLXuV5Yt2bjQRgJ2yz0FOoBI</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>{'compound_code': 'X6W2+7R 永福里 Tainan City, West Central District', 'global_code': '7QJ2X6W2+7R'}</t>
+          <t>{'compound_code': 'X6W5+6W 公正里 Tainan City, West Central District', 'global_code': '7QJ2X6W5+6W'}</t>
         </is>
       </c>
       <c r="K14" t="n">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>ChIJSz-BzWN2bjQRu7-JJgUWckI</t>
+          <t>ChIJLXuV5Yt2bjQRgJ2yz0FOoBI</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1675,23 +1660,22 @@
         </is>
       </c>
       <c r="O14" t="n">
-        <v>1742</v>
+        <v>136</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>No. 180號, Section 2, Yongfu Rd</t>
+          <t>B2, No. 162號, Zhongshan Rd</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="b">
-        <v>1</v>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/?q=place_id:ChIJSz-BzWN2bjQRu7-JJgUWckI</t>
+        <v>2</v>
+      </c>
+      <c r="R14" t="b">
+        <v>0</v>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/?q=place_id:ChIJLXuV5Yt2bjQRgJ2yz0FOoBI</t>
         </is>
       </c>
     </row>
@@ -1703,12 +1687,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>{'location': {'lat': 22.9955009, 'lng': 120.2098201}, 'viewport': {'northeast': {'lat': 22.99688137989272, 'lng': 120.2111460798927}, 'southwest': {'lat': 22.99418172010728, 'lng': 120.2084464201073}}}</t>
+          <t>{'location': {'lat': 22.9881652, 'lng': 120.207107}, 'viewport': {'northeast': {'lat': 22.98948832989272, 'lng': 120.2085693798928}, 'southwest': {'lat': 22.98678867010728, 'lng': 120.2058697201073}}}</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/restaurant-71.png</t>
+          <t>https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/cafe-71.png</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1718,12 +1702,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://maps.gstatic.com/mapfiles/place_api/icons/v2/restaurant_pinlet</t>
+          <t>https://maps.gstatic.com/mapfiles/place_api/icons/v2/cafe_pinlet</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>CoCo壹番屋 台南中山店</t>
+          <t>貴貴腹地 guigui foodie(無訂位）</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1733,25 +1717,25 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>[{'height': 3024, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/102540738113327439433"&gt;A Google User&lt;/a&gt;'], 'photo_reference': 'AWYs27wyqe96dortUQhPCiRlkeOa1DfNAkyA9XTUaoCKLb-Dz_quOzDj-N7qlxMQYL3c5I_O4SPYIbpcRl1bs_WQDmZFYmXxtMQSFIswO57-6G6LOmVR9WWDgRpl7WuHwkvBgLBZUlZ53pY44wNt4rcqgSPlGygO-CNzxCMlg4JLIzTW-QKk', 'width': 4032}]</t>
+          <t>[{'height': 4032, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/107531972648522233947"&gt;A Google User&lt;/a&gt;'], 'photo_reference': 'AWYs27xN63CVZSuVG0w5lYmvdQ4wAw5AizCrlwhzTi3DThg82-tn3EeINGyQs6J2rzNFrIbiMhbGPcm3fKx1efPvYnstGu9SKnkXjm769PmkQpr0he6qglQw9RK1shTlWtR7pyNKNU6GoEUiRTvWj3NiRxKmC1LlnEJ0j3Z84LO3pJAM8iH4', 'width': 3024}]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>ChIJLXuV5Yt2bjQRgJ2yz0FOoBI</t>
+          <t>ChIJOXr-l_l3bjQRQswq7DTpzng</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>{'compound_code': 'X6W5+6W 公正里 Tainan City, West Central District', 'global_code': '7QJ2X6W5+6W'}</t>
+          <t>{'compound_code': 'X6Q4+7V 郡王里 Tainan City, West Central District', 'global_code': '7QJ2X6Q4+7V'}</t>
         </is>
       </c>
       <c r="K15" t="n">
-        <v>3.1</v>
+        <v>4.6</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>ChIJLXuV5Yt2bjQRgJ2yz0FOoBI</t>
+          <t>ChIJOXr-l_l3bjQRQswq7DTpzng</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1761,27 +1745,24 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>['restaurant', 'food', 'point_of_interest', 'establishment']</t>
+          <t>['cafe', 'restaurant', 'food', 'store', 'point_of_interest', 'establishment']</t>
         </is>
       </c>
       <c r="O15" t="n">
-        <v>136</v>
+        <v>483</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>B2, No. 162號, Zhongshan Rd</t>
-        </is>
-      </c>
-      <c r="Q15" t="n">
-        <v>2</v>
-      </c>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="b">
-        <v>0</v>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/?q=place_id:ChIJLXuV5Yt2bjQRgJ2yz0FOoBI</t>
+          <t>Jianye St, 18號1樓</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="b">
+        <v>1</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/?q=place_id:ChIJOXr-l_l3bjQRQswq7DTpzng</t>
         </is>
       </c>
     </row>
@@ -1793,12 +1774,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>{'location': {'lat': 22.9881652, 'lng': 120.207107}, 'viewport': {'northeast': {'lat': 22.98948832989272, 'lng': 120.2085693798928}, 'southwest': {'lat': 22.98678867010728, 'lng': 120.2058697201073}}}</t>
+          <t>{'location': {'lat': 22.9906828, 'lng': 120.1952325}, 'viewport': {'northeast': {'lat': 22.99202592989272, 'lng': 120.1966179298927}, 'southwest': {'lat': 22.98932627010728, 'lng': 120.1939182701073}}}</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/cafe-71.png</t>
+          <t>https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/restaurant-71.png</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1808,12 +1789,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://maps.gstatic.com/mapfiles/place_api/icons/v2/cafe_pinlet</t>
+          <t>https://maps.gstatic.com/mapfiles/place_api/icons/v2/restaurant_pinlet</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>貴貴腹地 guigui foodie(無訂位）</t>
+          <t>SanFu Eatery(Days Off on Fan Page)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1823,25 +1804,25 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>[{'height': 4032, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/107531972648522233947"&gt;A Google User&lt;/a&gt;'], 'photo_reference': 'AWYs27x1DgVd5mMNs9QrI56WOa1Gno1ztOmWf_vTRO62Ktv63EcVz1jYW9jof-RH0jC7Fa4aHOnvgOIDhDMS4VWEH1cxN-ZQas_7lHLKiy853STGyYikBVxBNculk-0sgGAsLXQRNG2b5xTpjNJ1kMiMFI6b01eAew8HPQpqudUAq7P7ZTIt', 'width': 3024}]</t>
+          <t>[{'height': 3024, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/102169568745176238274"&gt;A Google User&lt;/a&gt;'], 'photo_reference': 'AWYs27wIovWrzOFMcWk47UTgjE9aTUpdrdtJ-NNoaVehb9Tstpd2WtfjUgBRXsNomlG_sG8r2hNtVfwtG6INc52_mIfxWTMSXXHaSnqTeUJF-5uBFOHlrl-FmJoa91ZVBp8fqQEY_XpsVTVwQZhsCNab3YLUGDUEsslvF4kHjoFaioYMAF-O', 'width': 4032}]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>ChIJOXr-l_l3bjQRQswq7DTpzng</t>
+          <t>ChIJR8E37Hp2bjQRCgwXu91YiDA</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>{'compound_code': 'X6Q4+7V 郡王里 Tainan City, West Central District', 'global_code': '7QJ2X6Q4+7V'}</t>
+          <t>{'compound_code': 'X5RW+73 民主里 Tainan City, West Central District', 'global_code': '7QJ2X5RW+73'}</t>
         </is>
       </c>
       <c r="K16" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>ChIJOXr-l_l3bjQRQswq7DTpzng</t>
+          <t>ChIJR8E37Hp2bjQRCgwXu91YiDA</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -1851,25 +1832,26 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>['cafe', 'restaurant', 'food', 'point_of_interest', 'store', 'establishment']</t>
+          <t>['restaurant', 'food', 'point_of_interest', 'establishment']</t>
         </is>
       </c>
       <c r="O16" t="n">
-        <v>483</v>
+        <v>277</v>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Jianye St, 18號1樓</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="b">
+          <t>No. 127號, Section 1, Hai'an Rd</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
         <v>1</v>
       </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/?q=place_id:ChIJOXr-l_l3bjQRQswq7DTpzng</t>
+      <c r="R16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/?q=place_id:ChIJR8E37Hp2bjQRCgwXu91YiDA</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1863,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>{'location': {'lat': 22.9906828, 'lng': 120.1952325}, 'viewport': {'northeast': {'lat': 22.99202592989272, 'lng': 120.1966179298927}, 'southwest': {'lat': 22.98932627010728, 'lng': 120.1939182701073}}}</t>
+          <t>{'location': {'lat': 22.9921085, 'lng': 120.2066025}, 'viewport': {'northeast': {'lat': 22.99353942989272, 'lng': 120.2079639798927}, 'southwest': {'lat': 22.99083977010728, 'lng': 120.2052643201073}}}</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1901,7 +1883,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>SanFu Eatery(Days Off on Fan Page)</t>
+          <t>森木廚房 日式咖哩＆米食餐盒-中西推薦咖哩飯|人氣咖哩|熱門咖哩|人氣餐廳|外帶咖哩|日式烏龍麵</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1911,25 +1893,25 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>[{'height': 3024, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/102169568745176238274"&gt;A Google User&lt;/a&gt;'], 'photo_reference': 'AWYs27zxmynwGjTfnmcQMZAYFZYmu5Le81azncuJHsG72ZxX2QlCG7pZCDs9N8jEs4jH_79BeYRp7acBnHgQgB-P2_fTa8zUTAg98f9hX-C_XTtLrtPEXfR1IG-EnsqNeeaUzoZoqQAFZrjDSa1Ngj5-QHX_-sFgEBjPwAOjDusFw1jno8ZS', 'width': 4032}]</t>
+          <t>[{'height': 4080, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/108816381296609780858"&gt;A Google User&lt;/a&gt;'], 'photo_reference': 'AWYs27xQFeCMkcmooSmioXfdFSa2WeWBNjoJc5AVwNlQPPj_oupnw-6zb4AW-H6tUbuaM3XSEWFn28ToUSxh9o_wklN_fjtIcKQe2JrGiqHNP46xrc4U-HN8kALYZR-FVOXnHxM1HOyRQUgRfs0AyFdoBabHzCIN4OHiQYnOVvNQsZyFnvZ5', 'width': 3072}]</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>ChIJR8E37Hp2bjQRCgwXu91YiDA</t>
+          <t>ChIJLR9na_t3bjQRvhe60cSSbXg</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>{'compound_code': 'X5RW+73 民主里 Tainan City, West Central District', 'global_code': '7QJ2X5RW+73'}</t>
+          <t>{'compound_code': 'X6R4+RJ 銀同里 Tainan City, West Central District', 'global_code': '7QJ2X6R4+RJ'}</t>
         </is>
       </c>
       <c r="K17" t="n">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>ChIJR8E37Hp2bjQRCgwXu91YiDA</t>
+          <t>ChIJLR9na_t3bjQRvhe60cSSbXg</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -1943,23 +1925,20 @@
         </is>
       </c>
       <c r="O17" t="n">
-        <v>277</v>
+        <v>199</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>No. 127號, Section 1, Hai'an Rd</t>
-        </is>
-      </c>
-      <c r="Q17" t="n">
-        <v>1</v>
-      </c>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="b">
+          <t>No. 36號, Qingnian Rd</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="b">
         <v>0</v>
       </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/?q=place_id:ChIJR8E37Hp2bjQRCgwXu91YiDA</t>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/?q=place_id:ChIJLR9na_t3bjQRvhe60cSSbXg</t>
         </is>
       </c>
     </row>
@@ -1971,7 +1950,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>{'location': {'lat': 22.9921085, 'lng': 120.2066025}, 'viewport': {'northeast': {'lat': 22.99353942989272, 'lng': 120.2079639798927}, 'southwest': {'lat': 22.99083977010728, 'lng': 120.2052643201073}}}</t>
+          <t>{'location': {'lat': 22.9888917, 'lng': 120.2047912}, 'viewport': {'northeast': {'lat': 22.99031432989272, 'lng': 120.2061510298927}, 'southwest': {'lat': 22.98761467010727, 'lng': 120.2034513701073}}}</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1991,7 +1970,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>森木廚房 日式咖哩＆米食餐盒-中西推薦咖哩飯|人氣咖哩|熱門咖哩|人氣餐廳|外帶咖哩|日式烏龍麵</t>
+          <t>侘熟成咖哩 | 日式熟成咖哩 | 中西區咖哩美食</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -2001,25 +1980,25 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>[{'height': 4080, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/108816381296609780858"&gt;A Google User&lt;/a&gt;'], 'photo_reference': 'AWYs27ykUzroquPCXE1fcayyFTl7qW6ZHEH_yRgFeBYP1x2oKrLGOfHxo206Oo0O33CcZ_dECRbFS9EaTOhWDrThplGWFqZirEjVgyX_8B7NcB8jTaNgUoqE6rOC4u-uy9qW-7-wCNn_J3ArE2oLinsdXfZ-f49QY0ExtmJKeMeVj4CJBp51', 'width': 3072}]</t>
+          <t>[{'height': 2880, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/109170854268542797423"&gt;李雅倫&lt;/a&gt;'], 'photo_reference': 'AWYs27xWeIJwT-kN6PHbKQKZlxit0kxjcZObvC-8xBv7xgwm-bONmXnOw0nP0IyhAz_ZOQDlHHpraVU3Os2j5k-YG_6inu08Fjg5PlLFwYViorTp9fD99isBEyBeGdT3JNOALau0dBRDg_BZ-fXZ9ScggCfhwpiCon6MZOIJptMY1SaMpfAk', 'width': 3840}]</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>ChIJLR9na_t3bjQRvhe60cSSbXg</t>
+          <t>ChIJaQjDEol3bjQRlzxpTNjry2w</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>{'compound_code': 'X6R4+RJ 銀同里 Tainan City, West Central District', 'global_code': '7QJ2X6R4+RJ'}</t>
+          <t>{'compound_code': 'X6Q3+HW 郡王里 Tainan City, West Central District', 'global_code': '7QJ2X6Q3+HW'}</t>
         </is>
       </c>
       <c r="K18" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>ChIJLR9na_t3bjQRvhe60cSSbXg</t>
+          <t>ChIJaQjDEol3bjQRlzxpTNjry2w</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -2033,21 +2012,20 @@
         </is>
       </c>
       <c r="O18" t="n">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>No. 36號, Qingnian Rd</t>
+          <t>No. 189號, Section 1, Fuqian Rd</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="b">
+      <c r="R18" t="b">
         <v>0</v>
       </c>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/?q=place_id:ChIJLR9na_t3bjQRvhe60cSSbXg</t>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/?q=place_id:ChIJaQjDEol3bjQRlzxpTNjry2w</t>
         </is>
       </c>
     </row>
@@ -2089,7 +2067,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>[{'height': 1067, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/105884378609034234288"&gt;Kc Lin&lt;/a&gt;'], 'photo_reference': 'AWYs27xkGbXz5Y2Y5SYC2tsQ0L2WCAYE81tpLP_LUaPeiG9kxsJMo8Q7ts95K3cCcUPdYXUJsCjJ0JElhjThL7S3m22qtermfy3NwiO_hVcAceZvgqx9bDeFQ5MInBbIbxtewQnaTLb1YSDbzR3nUtMZ4KHFCuMKTOR_s3cGWf_Zn3doxyou', 'width': 1600}]</t>
+          <t>[{'height': 1067, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/105884378609034234288"&gt;Kc Lin&lt;/a&gt;'], 'photo_reference': 'AWYs27xzvdhBz2BrAxSgdPNurn8UYZje4P_a9tyNEtnLmYQ-UJI94ytZhDzlHWEXypZkcC4U-2CwkqEqjFWat1j4xn4pj-6MY5yF5na_dHieAzPme8InJ4pH5M9rl7s_cAL_fOTEqUrSYm_dwrY-RArTJDt9t8sSW63WsZgkGxODVrY_HqX5', 'width': 1600}]</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -2131,11 +2109,10 @@
       <c r="Q19" t="n">
         <v>2</v>
       </c>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="b">
+      <c r="R19" t="b">
         <v>1</v>
       </c>
-      <c r="T19" t="inlineStr">
+      <c r="S19" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/?q=place_id:ChIJ1S05t6x3bjQRGqsEIvpGOhU</t>
         </is>
@@ -2179,7 +2156,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>[{'height': 4032, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/115318302700749822967"&gt;薛潔瀅&lt;/a&gt;'], 'photo_reference': 'AWYs27y7XDEvknAWQw0sfuCD8gbWg2f6h0ncP19XeSqNXst_CTsEpQmaP4hirMKd2z-aln_3J1AeCuXgTFX7P1NKWnu4r5UH4W80f66cbYEBGBuLmrQ0g04Lqmc_-v_AVn0vYuJSxUODb80t6jDBrfCGLsrTD8DC2uHw9V1m_d_CEhJ_b6pr', 'width': 3024}]</t>
+          <t>[{'height': 4032, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/115318302700749822967"&gt;薛潔瀅&lt;/a&gt;'], 'photo_reference': 'AWYs27zCVbIC-OTYJaGsY28aDwfkarAc9Po-ovwIdMnNzbTIKEBwkoGL2AWRxhGj_QHFYvTbmW_-o-uTG3wGC-JShxjfAWuERyhLDZUFhXIFnhTk_1GBTNH86_ruAnI1S0Iz01fwXKY1zUs49qQ3OHpI1JWoTlS4M1HKGWmMJwNXtHiZsKV2', 'width': 3024}]</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -2219,11 +2196,10 @@
         </is>
       </c>
       <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="b">
+      <c r="R20" t="b">
         <v>0</v>
       </c>
-      <c r="T20" t="inlineStr">
+      <c r="S20" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/?q=place_id:ChIJz47JZO93bjQRhP9dfUuYfVA</t>
         </is>
@@ -2267,7 +2243,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>[{'height': 2268, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/100847020509390037156"&gt;A Google User&lt;/a&gt;'], 'photo_reference': 'AWYs27y6IP_Zp6aK2PHSmPYEkk2rSgadyaJrzeU7uAIr0WDq6fwpShrszC9-zbwGjFp8t6GCkTB-09210bSUIxTg47d6SY14WWVAxL4LjRZNSadg7Yplqu7mjeyC79cXGM4fiMaIBfjxuScMtnfcM4XQfhXc9xdkmmFzME1nogUUQQC_2hTX', 'width': 4032}]</t>
+          <t>[{'height': 2268, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/100847020509390037156"&gt;A Google User&lt;/a&gt;'], 'photo_reference': 'AWYs27wWNGewesL0gozJOqP-GUllavd8o6D_Rb99mIzZMnHCECOSY2X9x1QicYNj03pkGrCvTYbA1KNNdvOMBTN1zY8J9SNmDhegY2eghvuekEUjiBv2Z3hYazR6rzDV5mllpyPh0XKEAUlhSEgD6Nzkd97TbKdZaD3kEaAasCphoFqUBbd0', 'width': 4032}]</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -2295,7 +2271,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>['cafe', 'museum', 'restaurant', 'food', 'point_of_interest', 'establishment']</t>
+          <t>['museum', 'cafe', 'restaurant', 'food', 'point_of_interest', 'establishment']</t>
         </is>
       </c>
       <c r="O21" t="n">
@@ -2309,11 +2285,10 @@
       <c r="Q21" t="n">
         <v>2</v>
       </c>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="b">
+      <c r="R21" t="b">
         <v>1</v>
       </c>
-      <c r="T21" t="inlineStr">
+      <c r="S21" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/?q=place_id:ChIJ96kYpiZ3bjQR6HvF4Z-CY4o</t>
         </is>
@@ -2327,7 +2302,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>{'location': {'lat': 22.9938985, 'lng': 120.1977348}, 'viewport': {'northeast': {'lat': 22.99526057989272, 'lng': 120.1990280298927}, 'southwest': {'lat': 22.99256092010728, 'lng': 120.1963283701073}}}</t>
+          <t>{'location': {'lat': 22.9938749, 'lng': 120.2075196}, 'viewport': {'northeast': {'lat': 22.99519477989272, 'lng': 120.2088424798928}, 'southwest': {'lat': 22.99249512010728, 'lng': 120.2061428201073}}}</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2347,7 +2322,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>喜樂咖哩</t>
+          <t>Mr.Eraserkitchen</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -2355,23 +2330,27 @@
           <t>{'open_now': True}</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>[{'height': 4032, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/110516851784580578590"&gt;林欣瑩&lt;/a&gt;'], 'photo_reference': 'AWYs27yULutIUhrFMCsTLSeqDX11yjfubN9v1SG9cqdLJUcsBb0EdpEtIUoE_lMbH7hAxknaP5XNHIqNpi3IQ_5TVnB0CpO0cjwcyFCvcg85yE3f13lW_MeFa_q595Bpur8G4UIoQ8u79V_tIT3YldGbwCnsVYDvTZKTyLEPCxVvP3oJC7Eu', 'width': 3024}]</t>
+        </is>
+      </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>ChIJSwDI7WR2bjQRubY39F3JSCg</t>
+          <t>ChIJvafv6L53bjQRv-lZgkk2U1A</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>{'compound_code': 'X5VX+H3 中正里 Tainan City, West Central District', 'global_code': '7QJ2X5VX+H3'}</t>
+          <t>{'compound_code': 'X6V5+G2 West Central District, Tainan City', 'global_code': '7QJ2X6V5+G2'}</t>
         </is>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>ChIJSwDI7WR2bjQRubY39F3JSCg</t>
+          <t>ChIJvafv6L53bjQRv-lZgkk2U1A</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -2381,25 +2360,26 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>['restaurant', 'food', 'point_of_interest', 'establishment']</t>
+          <t>['restaurant', 'food', 'store', 'point_of_interest', 'establishment']</t>
         </is>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>759</v>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Section 3, Guohua St, 26號A10室</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="b">
-        <v>0</v>
-      </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/?q=place_id:ChIJSwDI7WR2bjQRubY39F3JSCg</t>
+          <t>No. 6號, Lane 82, Zhongshan Rd</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>2</v>
+      </c>
+      <c r="R22" t="b">
+        <v>1</v>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/?q=place_id:ChIJvafv6L53bjQRv-lZgkk2U1A</t>
         </is>
       </c>
     </row>
@@ -2411,7 +2391,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>{'location': {'lat': 22.9882116, 'lng': 120.1946209}, 'viewport': {'northeast': {'lat': 22.98955747989272, 'lng': 120.1960717798927}, 'southwest': {'lat': 22.98685782010728, 'lng': 120.1933721201072}}}</t>
+          <t>{'location': {'lat': 22.9944087, 'lng': 120.1975125}, 'viewport': {'northeast': {'lat': 22.99569937989272, 'lng': 120.1988498298928}, 'southwest': {'lat': 22.99299972010728, 'lng': 120.1961501701073}}}</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2431,35 +2411,35 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Hi！咖哩</t>
+          <t>金禾Kimho 正興店</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>{'open_now': False}</t>
+          <t>{'open_now': True}</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>[{'height': 768, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/100618716029214028754"&gt;小龍黃&lt;/a&gt;'], 'photo_reference': 'AWYs27zglFNEWRVZI1wuMlIjU6Ncs5ZGHhgRtn5GA2Ws_NsXzvmBjlS9Q20Ii9ZF3cH6VCThLFKb-wRcmKXvp2hs6kZ1CLvC9cNIDDe_AEOTahx_ESzJk5cocNqyMf2c6joh8-3y27Ju20K1sRRUK8IeCOa6BzZSRvuS5za5y6bu6mDa2By7', 'width': 1024}]</t>
+          <t>[{'height': 3691, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/109812771261646797144"&gt;A Google User&lt;/a&gt;'], 'photo_reference': 'AWYs27yHlThQ-9X55uUNH6NI5zsl0WQbNc-sHj6T3nXKjHeIcHFGwhbh70JPo-7LdksUP2Fq6XyPkgjh8rq8LZaDC35kycCW-dzngupIWbxBPZhfNEfUsn8bPRPjPiNgMNleWUJ9S7rOT0rSc-FbSQKo-mh7ZBzGVX5y5LU8yE_TOsI8IF4C', 'width': 3894}]</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>ChIJAdaNGSl3bjQR1oRv_m_JpYk</t>
+          <t>ChIJlYLEOct3bjQRRX0RghF7_FY</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>{'compound_code': 'X5QV+7R 郡西里 Tainan City, West Central District', 'global_code': '7QJ2X5QV+7R'}</t>
+          <t>{'compound_code': 'X5VX+P2 中正里 Tainan City, West Central District', 'global_code': '7QJ2X5VX+P2'}</t>
         </is>
       </c>
       <c r="K23" t="n">
-        <v>3.9</v>
+        <v>4.7</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>ChIJAdaNGSl3bjQR1oRv_m_JpYk</t>
+          <t>ChIJlYLEOct3bjQRRX0RghF7_FY</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -2473,21 +2453,20 @@
         </is>
       </c>
       <c r="O23" t="n">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>No. 21號, Section 1, Hai'an Rd</t>
+          <t>No. 66號, Zhengxing St</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="b">
+      <c r="R23" t="b">
         <v>0</v>
       </c>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/?q=place_id:ChIJAdaNGSl3bjQR1oRv_m_JpYk</t>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/?q=place_id:ChIJlYLEOct3bjQRRX0RghF7_FY</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2508,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>[{'height': 2880, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/118176872253380341250"&gt;趙正蓉&lt;/a&gt;'], 'photo_reference': 'AWYs27wU4egZ-VtwF7Yi7Fz-HH5lDweJdtNV1xw7mvWoH7wdv_xhHD_IMn2Q8YuXgJURvMUGMyXBQ9-YRT_hDNMvN8Du4mwMzQvGPRM3ONNSSeckRnx98OvQx01gLciTXSEJ4Ay1TOhiFSdlKv_ub2i9xNqhlNfZ9rcF8FITrmyPshK4sVqZ', 'width': 2160}]</t>
+          <t>[{'height': 2880, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/118176872253380341250"&gt;趙正蓉&lt;/a&gt;'], 'photo_reference': 'AWYs27wPXHPMqLlP0B1I-_RQeWalR3SgwAWWkkcrDVgnWNWumhMx26O7HeWcDvUae3whi1isuy3q-NL2KZqyZ8bpHVoD2axoeRmrylEww6iDAhUpTfj-kGk3vZLvf6A3-WRKPg2sVn0B5r5yqGq0tfIlgZVdY7bM0oGUO8tTSBO9RSsqfi1M', 'width': 2160}]</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2569,11 +2548,10 @@
         </is>
       </c>
       <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="b">
+      <c r="R24" t="b">
         <v>0</v>
       </c>
-      <c r="T24" t="inlineStr">
+      <c r="S24" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/?q=place_id:ChIJ3Ul7Jj53bjQRXawbgKrYgw8</t>
         </is>
@@ -2587,7 +2565,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>{'location': {'lat': 22.9937875, 'lng': 120.1964733}, 'viewport': {'northeast': {'lat': 22.99513302989272, 'lng': 120.1978404798927}, 'southwest': {'lat': 22.99243337010728, 'lng': 120.1951408201073}}}</t>
+          <t>{'location': {'lat': 22.9882116, 'lng': 120.1946209}, 'viewport': {'northeast': {'lat': 22.98955747989272, 'lng': 120.1960717798927}, 'southwest': {'lat': 22.98685782010728, 'lng': 120.1933721201072}}}</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2607,7 +2585,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>南夏咖哩（11/20起新菜單請留意，20:00為現場最後入店時間）</t>
+          <t>Hi！咖哩</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2617,25 +2595,25 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>[{'height': 3024, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/104389679374031521567"&gt;A Google User&lt;/a&gt;'], 'photo_reference': 'AWYs27werhM_s597JM0F_LsX980OU6AA57koR0SdFOFARyBz2mUr4M-BBXBDDgPwKlTLvxT73d92E4BP6qArAhHU7thbsrDbrIJVujKTkb30RD5qV8h4PH-B8No_z-3B7ozyt3JxaDWaMs50_AIbI_1bZLLEaWm6LN0pRazzSGgrOnC1jAXD', 'width': 3024}]</t>
+          <t>[{'height': 768, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/100618716029214028754"&gt;小龍黃&lt;/a&gt;'], 'photo_reference': 'AWYs27x4z1tKZ9guYv4xQ9l-DerAAK5S0Ewz-1phom-OqKrDIXapd07gQR46FoScBIEhZumlHkgVCdxJolhd_hRmLt00d9oqRgW64PyDKorgcPbK-NdhTJ_u8aTbatLWom1aWzHDH8tySvRxa0s8qcTwvBaXyWUKvkeGO7Rk0Gc7LPKExsYe', 'width': 1024}]</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>ChIJ5RhpSmp3bjQRHb88bLe1X8M</t>
+          <t>ChIJAdaNGSl3bjQR1oRv_m_JpYk</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>{'compound_code': 'X5VW+GH West Central District, Tainan City', 'global_code': '7QJ2X5VW+GH'}</t>
+          <t>{'compound_code': 'X5QV+7R 郡西里 Tainan City, West Central District', 'global_code': '7QJ2X5QV+7R'}</t>
         </is>
       </c>
       <c r="K25" t="n">
-        <v>4.7</v>
+        <v>3.9</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>ChIJ5RhpSmp3bjQRHb88bLe1X8M</t>
+          <t>ChIJAdaNGSl3bjQR1oRv_m_JpYk</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -2649,23 +2627,20 @@
         </is>
       </c>
       <c r="O25" t="n">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>No. 7號, Lane 30, Section 2, Hai'an Rd</t>
-        </is>
-      </c>
-      <c r="Q25" t="n">
-        <v>2</v>
-      </c>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="b">
+          <t>No. 21號, Section 1, Hai'an Rd</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="b">
         <v>0</v>
       </c>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/?q=place_id:ChIJ5RhpSmp3bjQRHb88bLe1X8M</t>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/?q=place_id:ChIJAdaNGSl3bjQR1oRv_m_JpYk</t>
         </is>
       </c>
     </row>
@@ -2677,7 +2652,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>{'location': {'lat': 23.0023733, 'lng': 120.2042782}, 'viewport': {'northeast': {'lat': 23.00370852989272, 'lng': 120.2056372798927}, 'southwest': {'lat': 23.00100887010728, 'lng': 120.2029376201073}}}</t>
+          <t>{'location': {'lat': 22.9938985, 'lng': 120.1977348}, 'viewport': {'northeast': {'lat': 22.99526057989272, 'lng': 120.1990280298927}, 'southwest': {'lat': 22.99256092010728, 'lng': 120.1963283701073}}}</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2697,7 +2672,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>小德森排骨王子（便當×咖哩×茶×外帶×外送×無內用）</t>
+          <t>喜樂咖哩</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2705,27 +2680,23 @@
           <t>{'open_now': True}</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>[{'height': 5712, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/115605212767907275422"&gt;Chiuyun Huang&lt;/a&gt;'], 'photo_reference': 'AWYs27ziCz6EX7I7Ni6OjgDUg5BPJdCdjaGvz4iTU5BlusiEIegt63tR6TonPjeEeeUOorKrj1LKPukpGgv05N1HJp5gmFy7RMEgYUj18pbfOJ5fArIoNAusDy9AKH_mnnnPLiRvmHOLJonok2D1MtwwYiAy3S-oZ_U0OmEeh6UDMi-jD7Q5', 'width': 4284}]</t>
-        </is>
-      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>ChIJQw3uEmB2bjQRr8nXyIqCBzw</t>
+          <t>ChIJSwDI7WR2bjQRubY39F3JSCg</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>{'compound_code': '2623+XP 長德里 Tainan City, North District', 'global_code': '7QM22623+XP'}</t>
+          <t>{'compound_code': 'X5VX+H3 中正里 Tainan City, West Central District', 'global_code': '7QJ2X5VX+H3'}</t>
         </is>
       </c>
       <c r="K26" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>ChIJQw3uEmB2bjQRr8nXyIqCBzw</t>
+          <t>ChIJSwDI7WR2bjQRubY39F3JSCg</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -2739,23 +2710,20 @@
         </is>
       </c>
       <c r="O26" t="n">
-        <v>421</v>
+        <v>0</v>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>No. 260-8, Gongyuan S Rd</t>
-        </is>
-      </c>
-      <c r="Q26" t="n">
-        <v>1</v>
-      </c>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="b">
-        <v>1</v>
-      </c>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/?q=place_id:ChIJQw3uEmB2bjQRr8nXyIqCBzw</t>
+          <t>Section 3, Guohua St, 26號A10室</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="b">
+        <v>0</v>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/?q=place_id:ChIJSwDI7WR2bjQRubY39F3JSCg</t>
         </is>
       </c>
     </row>
@@ -2767,7 +2735,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>{'location': {'lat': 22.998459, 'lng': 120.1986269}, 'viewport': {'northeast': {'lat': 22.99981197989272, 'lng': 120.1999693798927}, 'southwest': {'lat': 22.99711232010728, 'lng': 120.1972697201073}}}</t>
+          <t>{'location': {'lat': 23.0012266, 'lng': 120.2074461}, 'viewport': {'northeast': {'lat': 23.00261337989272, 'lng': 120.2088062798927}, 'southwest': {'lat': 22.99991372010728, 'lng': 120.2061066201073}}}</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2787,35 +2755,35 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>咖哩鬥陣</t>
+          <t>Tyzzer</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>{'open_now': False}</t>
+          <t>{'open_now': True}</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>[{'height': 4634, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/104749663103843491036"&gt;A Google User&lt;/a&gt;'], 'photo_reference': 'AWYs27yDl86QiC9tNDEUIbaKf7asTNnB5Hi5C9PffQLyNIpe45X-4yESYwgnfPVQ5BYbQWiIgM_x49QB06Rhqg9WP7eefACn6HxfulBWhixHWuGMzxf2E7lqcoCyYSi1kjZrCN9mvEedm84T2qf6i7_bYF_TAOLKYoJ6w3EoEoryjOf-vbhG', 'width': 6951}]</t>
+          <t>[{'height': 2448, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/102200110075648090171"&gt;A Google User&lt;/a&gt;'], 'photo_reference': 'AWYs27yu-6P_Y5IFsXvLoUKkA6JPKhx9Xe2_uY5VMLgNaBqxG0Zi69OrS8_ukKZek-Unw_laNB0gbcPdrr-5r9VN6t6GBxpBvkFTd2kegmAUBs53LJ6x9MuTLuxL2EiI_taifZDfdvXeHZ2JE9LrN-NVjMihTMtXN6Uc1Su9mhUDm6zI6xwj', 'width': 3264}]</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>ChIJvWhLG0B3bjQRUNHEcY5CN28</t>
+          <t>ChIJiWEbx2B2bjQR_h6dxUMSQ4U</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>{'compound_code': 'X5XX+9F 水仙里 Tainan City, West Central District', 'global_code': '7QJ2X5XX+9F'}</t>
+          <t>{'compound_code': '2624+FX 玉皇里 Tainan City, North District', 'global_code': '7QM22624+FX'}</t>
         </is>
       </c>
       <c r="K27" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>ChIJvWhLG0B3bjQRUNHEcY5CN28</t>
+          <t>ChIJiWEbx2B2bjQR_h6dxUMSQ4U</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -2829,33 +2797,34 @@
         </is>
       </c>
       <c r="O27" t="n">
-        <v>382</v>
+        <v>589</v>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>No. 53號, Puji Street</t>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="b">
+          <t>No. 139號, Gongyuan S Rd</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>2</v>
+      </c>
+      <c r="R27" t="b">
         <v>1</v>
       </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/?q=place_id:ChIJvWhLG0B3bjQRUNHEcY5CN28</t>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/?q=place_id:ChIJiWEbx2B2bjQR_h6dxUMSQ4U</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CLOSED_TEMPORARILY</t>
+          <t>OPERATIONAL</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>{'location': {'lat': 22.9933292, 'lng': 120.1989206}, 'viewport': {'northeast': {'lat': 22.99467752989272, 'lng': 120.2002697798927}, 'southwest': {'lat': 22.99197787010728, 'lng': 120.1975701201073}}}</t>
+          <t>{'location': {'lat': 23.0023733, 'lng': 120.2042782}, 'viewport': {'northeast': {'lat': 23.00370852989272, 'lng': 120.2056372798927}, 'southwest': {'lat': 23.00100887010728, 'lng': 120.2029376201073}}}</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2875,31 +2844,35 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Sand Wave．鯊桃</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr"/>
+          <t>小德森排骨王子（便當×咖哩×茶×外帶×外送×無內用）</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>{'open_now': True}</t>
+        </is>
+      </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>[{'height': 2424, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/116008926367358746782"&gt;jen hon&lt;/a&gt;'], 'photo_reference': 'AWYs27z588JcxGqmyosbdknkNwKzPMOo4IZckIq6qVHSjnYKn26Cr_iNNZBdYmBTeupX5tA9I9euSE4LVNAEqqNxoA6u_iZZ4GPHlubUnntsA3lXorGstVWpXZ-ixffBbpNJJQ3I7VSzaSeGvWBMBWOWtZQ4_uddTnajowXirVqmO4hhC0fx', 'width': 3232}]</t>
+          <t>[{'height': 5712, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/115605212767907275422"&gt;Chiuyun Huang&lt;/a&gt;'], 'photo_reference': 'AWYs27xvm4AX1xKQWGDEfaKQqhMKnAibdHzvWhS0r4UjdDtWwk0X0EN1XrypSjGfdjTkXV5l2eqrEQgqGizncsmqa3f5iIxPbsUARPoxklQm_6rS6SWkkd4zmWDwpNgrVNCNhE9JiwLw5WcNvou3iCPjp6orvNfKJkM_aCL6ZYN0iGSj7aQ1', 'width': 4284}]</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>ChIJUWRsKkt3bjQRJx9lupB9UXc</t>
+          <t>ChIJQw3uEmB2bjQRr8nXyIqCBzw</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>{'compound_code': 'X5VX+8H West Central District, Tainan City', 'global_code': '7QJ2X5VX+8H'}</t>
+          <t>{'compound_code': '2623+XP 長德里 Tainan City, North District', 'global_code': '7QM22623+XP'}</t>
         </is>
       </c>
       <c r="K28" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>ChIJUWRsKkt3bjQRJx9lupB9UXc</t>
+          <t>ChIJQw3uEmB2bjQRr8nXyIqCBzw</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -2913,23 +2886,22 @@
         </is>
       </c>
       <c r="O28" t="n">
-        <v>17</v>
+        <v>421</v>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Section 2, Ximen Rd, 118號3 樓</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr"/>
+          <t>No. 260-8, Gongyuan S Rd</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>1</v>
+      </c>
       <c r="R28" t="b">
         <v>1</v>
       </c>
-      <c r="S28" t="b">
-        <v>0</v>
-      </c>
-      <c r="T28" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/?q=place_id:ChIJUWRsKkt3bjQRJx9lupB9UXc</t>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/?q=place_id:ChIJQw3uEmB2bjQRr8nXyIqCBzw</t>
         </is>
       </c>
     </row>
@@ -2941,83 +2913,788 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>{'location': {'lat': 22.994179, 'lng': 120.197159}, 'viewport': {'northeast': {'lat': 22.99552952989272, 'lng': 120.1985037798928}, 'southwest': {'lat': 22.99282987010728, 'lng': 120.1958041201073}}}</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/shopping-71.png</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>#4B96F3</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>https://maps.gstatic.com/mapfiles/place_api/icons/v2/shopping_pinlet</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>拾參馬卡龍 正興店</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>{'open_now': True}</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>[{'height': 4032, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/112652517185688395230"&gt;拾參&lt;/a&gt;'], 'photo_reference': 'AWYs27zV7ANkkJXzLiavpiN0p9Ky6o52ZsqnzVKqLg3tbJZB1RRLE3Ot5b4e2VVNmbLNXClWTlLeFT--qqXGkyAfPXb2u9mwKO1TShVjLEkKSsYWAqbhcgFHuIahCRtmu8Y-Gtsrm_8PCZRrOsX8xIB4v3kD1zdloCfLnfqJMbxC0uxqW0qk', 'width': 3024}]</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>ChIJCRa05GR2bjQRdUR29eV6y0A</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>{'compound_code': 'X5VW+MV 中正里 Tainan City, West Central District', 'global_code': '7QJ2X5VW+MV'}</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>ChIJCRa05GR2bjQRdUR29eV6y0A</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>GOOGLE</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>['bakery', 'restaurant', 'food', 'store', 'point_of_interest', 'establishment']</t>
+        </is>
+      </c>
+      <c r="O29" t="n">
+        <v>593</v>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>No. 63號, Zhengxing St</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="b">
+        <v>1</v>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/?q=place_id:ChIJCRa05GR2bjQRdUR29eV6y0A</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>OPERATIONAL</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>{'location': {'lat': 22.9937875, 'lng': 120.1964733}, 'viewport': {'northeast': {'lat': 22.99513302989272, 'lng': 120.1978404798927}, 'southwest': {'lat': 22.99243337010728, 'lng': 120.1951408201073}}}</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/restaurant-71.png</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>#FF9E67</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>https://maps.gstatic.com/mapfiles/place_api/icons/v2/restaurant_pinlet</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>南夏咖哩（11/20起新菜單請留意，20:00為現場最後入店時間）</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>{'open_now': False}</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>[{'height': 3024, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/104389679374031521567"&gt;A Google User&lt;/a&gt;'], 'photo_reference': 'AWYs27w_tyyyytHoSnXiB5ZYJ_XjEw7fEKbq80cdkXJvlzsT85tewIeUNH491WJpmsLol1W-ZQ8viEp-CkZjQEhJKCbE3iw7rX3gT9HY5iK1IY3npT0jRyleAWg0joBPWhn3OVJo9WtsGKGQ3rAY2XaUEO5BXbVyufZQb8Xhl64TJOBN5Srb', 'width': 3024}]</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>ChIJ5RhpSmp3bjQRHb88bLe1X8M</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>{'compound_code': 'X5VW+GH West Central District, Tainan City', 'global_code': '7QJ2X5VW+GH'}</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>ChIJ5RhpSmp3bjQRHb88bLe1X8M</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>GOOGLE</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>['restaurant', 'food', 'point_of_interest', 'establishment']</t>
+        </is>
+      </c>
+      <c r="O30" t="n">
+        <v>179</v>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>No. 7號, Lane 30, Section 2, Hai'an Rd</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>2</v>
+      </c>
+      <c r="R30" t="b">
+        <v>0</v>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/?q=place_id:ChIJ5RhpSmp3bjQRHb88bLe1X8M</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>OPERATIONAL</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>{'location': {'lat': 22.9946322, 'lng': 120.2033267}, 'viewport': {'northeast': {'lat': 22.99596857989272, 'lng': 120.2047258798927}, 'southwest': {'lat': 22.99326892010728, 'lng': 120.2020262201073}}}</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/restaurant-71.png</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>#FF9E67</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>https://maps.gstatic.com/mapfiles/place_api/icons/v2/restaurant_pinlet</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>極屋牛丼</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>{'open_now': True}</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>[{'height': 4032, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/100396559246043429157"&gt;A Google User&lt;/a&gt;'], 'photo_reference': 'AWYs27xuPzBZ9C2VMC2__WOlkNu5g-b8MjSvBnaE1P-wL5KH3zfxWH8IsDsTNlGAXyDwJNsnVtfPJmf45f9WrEYikO26G827WaYIh_pViV7e4TN4-0Qlq_H1dyJF9cy6KnvvM6d0BX7xeTnwNo5AjbIL99wlg7dYUg4IuSOhEdorLG_bF0mK', 'width': 3024}]</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>ChIJg-fJOGJ2bjQRcoLFVDw5SN0</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>{'compound_code': 'X6V3+R8 永福里 Tainan City, West Central District', 'global_code': '7QJ2X6V3+R8'}</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>4</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>ChIJg-fJOGJ2bjQRcoLFVDw5SN0</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>GOOGLE</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>['restaurant', 'food', 'point_of_interest', 'establishment']</t>
+        </is>
+      </c>
+      <c r="O31" t="n">
+        <v>472</v>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>No. 137, Section 2, Zhongyi Rd</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>2</v>
+      </c>
+      <c r="R31" t="b">
+        <v>1</v>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/?q=place_id:ChIJg-fJOGJ2bjQRcoLFVDw5SN0</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>OPERATIONAL</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>{'location': {'lat': 22.9900507, 'lng': 120.2059839}, 'viewport': {'northeast': {'lat': 22.99145502989272, 'lng': 120.2073064298927}, 'southwest': {'lat': 22.98875537010728, 'lng': 120.2046067701073}}}</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/restaurant-71.png</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>#FF9E67</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>https://maps.gstatic.com/mapfiles/place_api/icons/v2/restaurant_pinlet</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Tiffany</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>{'open_now': True}</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>[{'height': 2448, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/117483024085541902966"&gt;韓文惠&lt;/a&gt;'], 'photo_reference': 'AWYs27zVyiU8yVN3H_m8XdpWyANs-FGYpFA6Zf5hsHp8f4-FPZEIX6F0DEouCYNoAjLIs3XEtTGWHzTVR_SUaWCa48YlXaZrP2cwNh-OLpTKM5NBm8s1AOMfPlnVfW3d--xnfdIUQsmwXiNgSQe7fgoP-7eq-TIuyPA40QyPwuTWHj3DzDjA', 'width': 3264}]</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>ChIJ9VqQ4od2bjQRqa1Whm6b0UY</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>{'compound_code': 'X6R4+29 West Central District, Tainan City', 'global_code': '7QJ2X6R4+29'}</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>ChIJ9VqQ4od2bjQRqa1Whm6b0UY</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>GOOGLE</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>['restaurant', 'food', 'point_of_interest', 'establishment']</t>
+        </is>
+      </c>
+      <c r="O32" t="n">
+        <v>11</v>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>No.103, Fuzhung Street</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="b">
+        <v>0</v>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/?q=place_id:ChIJ9VqQ4od2bjQRqa1Whm6b0UY</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>OPERATIONAL</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>{'location': {'lat': 22.998459, 'lng': 120.1986269}, 'viewport': {'northeast': {'lat': 22.99981197989272, 'lng': 120.1999693798927}, 'southwest': {'lat': 22.99711232010728, 'lng': 120.1972697201073}}}</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/restaurant-71.png</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>#FF9E67</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>https://maps.gstatic.com/mapfiles/place_api/icons/v2/restaurant_pinlet</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>咖哩鬥陣</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>{'open_now': False}</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>[{'height': 4634, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/104749663103843491036"&gt;A Google User&lt;/a&gt;'], 'photo_reference': 'AWYs27zwO0vO1eSzlL-ftUNNdHMUQlSd8cNr5M_oRjEmi4kKSnwDoTljPZBZImD9jlpeXU3XI_si8OmanDClmps2P8d4PtffT8zGmq-OfExIL5OB6_9ODsj554HFOZrNaaTlxK_MX-XQtLe_QQCVQQ-PrEvNJYlo42-NVSYx6CRpFBYATY9E', 'width': 6951}]</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>ChIJvWhLG0B3bjQRUNHEcY5CN28</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>{'compound_code': 'X5XX+9F 水仙里 Tainan City, West Central District', 'global_code': '7QJ2X5XX+9F'}</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>ChIJvWhLG0B3bjQRUNHEcY5CN28</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>GOOGLE</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>['restaurant', 'food', 'point_of_interest', 'establishment']</t>
+        </is>
+      </c>
+      <c r="O33" t="n">
+        <v>382</v>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>No. 53號, Puji Street</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="b">
+        <v>1</v>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/?q=place_id:ChIJvWhLG0B3bjQRUNHEcY5CN28</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>OPERATIONAL</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
           <t>{'location': {'lat': 23.004759, 'lng': 120.2092531}, 'viewport': {'northeast': {'lat': 23.00612637989272, 'lng': 120.2106067798927}, 'southwest': {'lat': 23.00342672010728, 'lng': 120.2079071201073}}}</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/shopping-71.png</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>#4B96F3</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>https://maps.gstatic.com/mapfiles/place_api/icons/v2/shopping_pinlet</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>Saki Cafe and Curry (order in advance)</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>{'open_now': False}</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>[{'height': 3264, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/109592310555801028856"&gt;Chang Chris&lt;/a&gt;'], 'photo_reference': 'AWYs27zk2rRkQMxorzfudPXaVW5YFVsg-OI_XkA6g2mOsssDkQXiTRifiYHbQ1JAN2eA5qUkdOII9dHLMen6twO83kGPY9MjA_IIRH-b9Sk_d-XqSqeRJUgWILjBL-RWse4ZCrXEXnoRnTYPjc3Ml16owgRvDJ_p0InN5teWuZ4OLYSkVBw4', 'width': 2448}]</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>[{'height': 3264, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/109592310555801028856"&gt;Chang Chris&lt;/a&gt;'], 'photo_reference': 'AWYs27yocaj8KM1iyJslj5INPXddSZbJnMz6S0emJJT-38v4SEwMrUvWqmEMDB8McZW9Yi0tn1GjS-Jas2P_L4dYWp56BgRL2J2qXxLVSYZxKbFxfzHkRh8LWp-o9xIL9XB6C8VqdaSlnk7HCKj5T0SBDsAllANTkXZXBq2PCfw-jErIWyRU', 'width': 2448}]</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
         <is>
           <t>ChIJk-E8kkh3bjQRSWS_kkXXm5o</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>{'compound_code': '2635+VM 興南里 Tainan City, North District', 'global_code': '7QM22635+VM'}</t>
         </is>
       </c>
-      <c r="K29" t="n">
+      <c r="K34" t="n">
         <v>4.9</v>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="L34" t="inlineStr">
         <is>
           <t>ChIJk-E8kkh3bjQRSWS_kkXXm5o</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr">
+      <c r="M34" t="inlineStr">
         <is>
           <t>GOOGLE</t>
         </is>
       </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>['store', 'restaurant', 'food', 'point_of_interest', 'establishment']</t>
-        </is>
-      </c>
-      <c r="O29" t="n">
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>['restaurant', 'food', 'store', 'point_of_interest', 'establishment']</t>
+        </is>
+      </c>
+      <c r="O34" t="n">
         <v>171</v>
       </c>
-      <c r="P29" t="inlineStr">
+      <c r="P34" t="inlineStr">
         <is>
           <t>No. 171號, Gongyuan N Rd</t>
         </is>
       </c>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="b">
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="b">
         <v>0</v>
       </c>
-      <c r="T29" t="inlineStr">
+      <c r="S34" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/?q=place_id:ChIJk-E8kkh3bjQRSWS_kkXXm5o</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>OPERATIONAL</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>{'location': {'lat': 22.9980691, 'lng': 120.1998901}, 'viewport': {'northeast': {'lat': 22.99936682989271, 'lng': 120.2012436798928}, 'southwest': {'lat': 22.99666717010727, 'lng': 120.1985440201073}}}</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/restaurant-71.png</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>#FF9E67</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>https://maps.gstatic.com/mapfiles/place_api/icons/v2/restaurant_pinlet</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>米香之家</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>{'open_now': True}</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>[{'height': 3024, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/107320946473889366352"&gt;liu hsuan&lt;/a&gt;'], 'photo_reference': 'AWYs27wvk5pzVS2uAPRcNjtJ-kTeoOhh0RB2HGErjbtZJ4-NmspC6vjBOoX8obyRI8HFB4mEsz_cvGY7_JWTeLdcUstEBJ4KZqzHmpdtEzseG3iQdR_p8EoHk-i69avA-vq3gnPkLtfaxXM8CTViExWB-byCcV-MvHPGb0QKUYJOOO7HiISb', 'width': 4032}]</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>ChIJM-iKSWF2bjQRrTmuoE_jNZo</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>{'compound_code': 'X5XX+6X 普濟里 Tainan City, West Central District', 'global_code': '7QJ2X5XX+6X'}</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>ChIJM-iKSWF2bjQRrTmuoE_jNZo</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>GOOGLE</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>['restaurant', 'food', 'point_of_interest', 'establishment']</t>
+        </is>
+      </c>
+      <c r="O35" t="n">
+        <v>330</v>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Section 2, Ximen Rd, 355號號</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>1</v>
+      </c>
+      <c r="R35" t="b">
+        <v>1</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/?q=place_id:ChIJM-iKSWF2bjQRrTmuoE_jNZo</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>OPERATIONAL</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>{'location': {'lat': 22.9971588, 'lng': 120.197084}, 'viewport': {'northeast': {'lat': 22.99848867989272, 'lng': 120.1984830298927}, 'southwest': {'lat': 22.99578902010728, 'lng': 120.1957833701073}}}</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/restaurant-71.png</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>#FF9E67</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>https://maps.gstatic.com/mapfiles/place_api/icons/v2/restaurant_pinlet</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>咖哩道場</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>{'open_now': False}</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>[{'height': 3024, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/100196124486209848609"&gt;A Google User&lt;/a&gt;'], 'photo_reference': 'AWYs27wNbzzgplnOB0qZS9gRxgnWGrSw8HNbx0WHsD5_hLmnII-5BBO6JmWTpDmxUvpDPXyvO4qIPkPGqUUcPkpd4uUUbOmHyXfQz4iFjm1gZGwLMX2cwRX5rvDjRql1Uzd7-jWNtXmMTOkNrtCjD4zNmW-KZLWv6RFkKVBXgTzbHcvqvgI0', 'width': 3211}]</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>ChIJ-bJqgY13bjQRZv9WD7-jMkw</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>{'compound_code': 'X5WW+VR West Central District, Tainan City', 'global_code': '7QJ2X5WW+VR'}</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>4</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>ChIJ-bJqgY13bjQRZv9WD7-jMkw</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>GOOGLE</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>['restaurant', 'food', 'point_of_interest', 'establishment']</t>
+        </is>
+      </c>
+      <c r="O36" t="n">
+        <v>844</v>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Section 2, Hai'an Rd, 民權路與神農街間</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>2</v>
+      </c>
+      <c r="R36" t="b">
+        <v>1</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/?q=place_id:ChIJ-bJqgY13bjQRZv9WD7-jMkw</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>OPERATIONAL</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>{'location': {'lat': 23.0044879, 'lng': 120.2035687}, 'viewport': {'northeast': {'lat': 23.00554992989272, 'lng': 120.2049421298927}, 'southwest': {'lat': 23.00285027010728, 'lng': 120.2022424701073}}}</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>https://maps.gstatic.com/mapfiles/place_api/icons/v1/png_71/restaurant-71.png</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>#FF9E67</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>https://maps.gstatic.com/mapfiles/place_api/icons/v2/restaurant_pinlet</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3皇3家-台南大潤發店</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>{'open_now': True}</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>[{'height': 4284, 'html_attributions': ['&lt;a href="https://maps.google.com/maps/contrib/110004961632121762228"&gt;清賢&lt;/a&gt;'], 'photo_reference': 'AWYs27wOPJnp0GMyRJmfbWa-Vn_O-8rdIRrCD7GD5vIOgzR0UfMuc99ZqFyzgkkKoNrIrAd9f34DBps_pt_DQCilFC-UjIaPQwYnvZt_cUgtzLxXCoJmg0ZK8t1WxwxgeoxwTAG8nLAMgSgYE18NIJ7RGwfyt7a2JbBU5-QmWQzKq0mG1dBJ', 'width': 5712}]</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>ChIJOcYVVrN3bjQRE2avMywX0nM</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>{'compound_code': '2633+QC 和順里 Tainan City, North District', 'global_code': '7QM22633+QC'}</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>ChIJOcYVVrN3bjQRE2avMywX0nM</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>GOOGLE</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>['restaurant', 'food', 'point_of_interest', 'establishment']</t>
+        </is>
+      </c>
+      <c r="O37" t="n">
+        <v>523</v>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Section 2, Lin'an Rd, 310號2F</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>2</v>
+      </c>
+      <c r="R37" t="b">
+        <v>1</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/?q=place_id:ChIJOcYVVrN3bjQRE2avMywX0nM</t>
         </is>
       </c>
     </row>
